--- a/Détails Activités.xlsx
+++ b/Détails Activités.xlsx
@@ -12,57 +12,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>id_tournoi</t>
+  </si>
   <si>
     <t>nom_tournoi</t>
   </si>
   <si>
-    <t>resultat_tournoi</t>
+    <t>id_equipe</t>
   </si>
   <si>
-    <t>nb_participants</t>
+    <t>nom_equipe</t>
   </si>
   <si>
-    <t>heure</t>
+    <t>1</t>
   </si>
   <si>
     <t>yy</t>
   </si>
   <si>
-    <t>50</t>
+    <t>nom</t>
   </si>
   <si>
-    <t>12</t>
+    <t>6</t>
   </si>
   <si>
     <t>tff</t>
   </si>
   <si>
-    <t>7</t>
+    <t>2</t>
   </si>
   <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>oiok</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>nom1</t>
   </si>
 </sst>
 </file>
@@ -135,7 +117,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -146,69 +128,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Détails Activités.xlsx
+++ b/Détails Activités.xlsx
@@ -29,7 +29,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>yy</t>
+    <t>FifaTournament</t>
   </si>
   <si>
     <t>nom</t>
